--- a/results/tc/dataset.xlsx
+++ b/results/tc/dataset.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="645" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Test</t>
   </si>
@@ -50,12 +50,18 @@
   <si>
     <t>32x32</t>
   </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>wd+ws</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,13 +86,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,25 +125,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -136,7 +146,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$9</c:f>
@@ -218,7 +227,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$9</c:f>
@@ -286,49 +294,34 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="83644416"/>
-        <c:axId val="83645952"/>
+        <c:dLbls/>
+        <c:axId val="95853184"/>
+        <c:axId val="95871360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83644416"/>
+        <c:axId val="95853184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83645952"/>
+        <c:crossAx val="95871360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83645952"/>
+        <c:axId val="95871360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83644416"/>
+        <c:crossAx val="95853184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -336,15 +329,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -352,24 +343,12 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -411,7 +390,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -454,51 +432,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="43429888"/>
-        <c:axId val="43431424"/>
+        <c:axId val="95884416"/>
+        <c:axId val="95885952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43429888"/>
+        <c:axId val="95884416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43431424"/>
+        <c:crossAx val="95885952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43431424"/>
+        <c:axId val="95885952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43429888"/>
+        <c:crossAx val="95884416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -506,15 +468,13 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -660,7 +620,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -695,7 +654,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -871,16 +829,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -888,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -899,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>43</v>
       </c>
@@ -910,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>53</v>
       </c>
@@ -921,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>38</v>
       </c>
@@ -932,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>179</v>
       </c>
@@ -943,7 +905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>40</v>
       </c>
@@ -954,7 +916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -965,7 +927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -976,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:9">
       <c r="E22" t="s">
         <v>2</v>
       </c>
@@ -993,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:9">
       <c r="C23" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:9">
       <c r="D24" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:9">
       <c r="E25">
         <f>E23/(E23+E24) * 100</f>
         <v>6.9767441860465116</v>
@@ -1058,12 +1020,12 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:9">
       <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:9">
       <c r="D27" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:9">
       <c r="D28" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9">
       <c r="E29">
         <f>E27/(E27+E28) * 100</f>
         <v>18.604651162790699</v>
@@ -1125,21 +1087,770 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:9">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>169</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>38</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
+      </c>
+      <c r="I32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="E33">
+        <f>E31/(E31+E32)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:I33" si="2">F31/(F31+F32)</f>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.949438202247191</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>173</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13">
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>43</v>
+      </c>
+      <c r="F36">
+        <v>53</v>
+      </c>
+      <c r="G36">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13">
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1">
+        <f>E35/(E35+E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37:I37" si="3">F35/(F35+F36)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9719101123595506</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>13</v>
+      </c>
+      <c r="I41" s="2">
+        <v>30</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2">
+        <v>29</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2">
+        <v>29</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>44</v>
+      </c>
+      <c r="I44" s="2">
+        <v>128</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13">
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>26</v>
+      </c>
+      <c r="I45" s="2">
+        <v>13</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2">
+        <v>9</v>
+      </c>
+      <c r="H52" s="2">
+        <v>6</v>
+      </c>
+      <c r="I52" s="2">
+        <v>16</v>
+      </c>
+      <c r="J52" s="2">
+        <v>4</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2">
+        <v>9</v>
+      </c>
+      <c r="I53" s="2">
+        <v>17</v>
+      </c>
+      <c r="J53" s="2">
+        <v>9</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2">
+        <v>6</v>
+      </c>
+      <c r="I54" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2">
+        <v>28</v>
+      </c>
+      <c r="H55" s="2">
+        <v>21</v>
+      </c>
+      <c r="I55" s="2">
+        <v>109</v>
+      </c>
+      <c r="J55" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7</v>
+      </c>
+      <c r="H56" s="2">
+        <v>3</v>
+      </c>
+      <c r="I56" s="2">
+        <v>17</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13">
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13">
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13">
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,24 +1860,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
